--- a/_site/xls/Poverty single year.xlsx
+++ b/_site/xls/Poverty single year.xlsx
@@ -6,16 +6,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="191" state="visible" r:id="rId10"/>
-    <sheet name="Relative BHC" sheetId="182" state="visible" r:id="rId1"/>
-    <sheet name="Relative AHC" sheetId="183" state="visible" r:id="rId2"/>
-    <sheet name="Absolute BHC" sheetId="184" state="visible" r:id="rId3"/>
-    <sheet name="Absolute AHC" sheetId="185" state="visible" r:id="rId4"/>
-    <sheet name="Severe BHC" sheetId="186" state="visible" r:id="rId5"/>
-    <sheet name="Severe AHC" sheetId="187" state="visible" r:id="rId6"/>
-    <sheet name="Child mat dep BHC" sheetId="188" state="visible" r:id="rId7"/>
-    <sheet name="Child mat dep AHC" sheetId="189" state="visible" r:id="rId8"/>
-    <sheet name="Pensioner dep" sheetId="190" state="visible" r:id="rId9"/>
+    <sheet name="Contents" sheetId="201" state="visible" r:id="rId10"/>
+    <sheet name="Relative BHC" sheetId="192" state="visible" r:id="rId1"/>
+    <sheet name="Relative AHC" sheetId="193" state="visible" r:id="rId2"/>
+    <sheet name="Absolute BHC" sheetId="194" state="visible" r:id="rId3"/>
+    <sheet name="Absolute AHC" sheetId="195" state="visible" r:id="rId4"/>
+    <sheet name="Severe BHC" sheetId="196" state="visible" r:id="rId5"/>
+    <sheet name="Severe AHC" sheetId="197" state="visible" r:id="rId6"/>
+    <sheet name="Child mat dep BHC" sheetId="198" state="visible" r:id="rId7"/>
+    <sheet name="Child mat dep AHC" sheetId="199" state="visible" r:id="rId8"/>
+    <sheet name="Pensioner dep" sheetId="200" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -817,13 +817,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI Semibold"/>
-      <b/>
+      <name val="Segoe UI"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Segoe UI Semibold"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -6598,17 +6598,17 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6945,17 +6945,17 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7122,27 +7122,27 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_site/xls/Poverty single year.xlsx
+++ b/_site/xls/Poverty single year.xlsx
@@ -6,22 +6,22 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="201" state="visible" r:id="rId10"/>
-    <sheet name="Relative BHC" sheetId="192" state="visible" r:id="rId1"/>
-    <sheet name="Relative AHC" sheetId="193" state="visible" r:id="rId2"/>
-    <sheet name="Absolute BHC" sheetId="194" state="visible" r:id="rId3"/>
-    <sheet name="Absolute AHC" sheetId="195" state="visible" r:id="rId4"/>
-    <sheet name="Severe BHC" sheetId="196" state="visible" r:id="rId5"/>
-    <sheet name="Severe AHC" sheetId="197" state="visible" r:id="rId6"/>
-    <sheet name="Child mat dep BHC" sheetId="198" state="visible" r:id="rId7"/>
-    <sheet name="Child mat dep AHC" sheetId="199" state="visible" r:id="rId8"/>
-    <sheet name="Pensioner dep" sheetId="200" state="visible" r:id="rId9"/>
+    <sheet name="Contents" sheetId="241" state="visible" r:id="rId10"/>
+    <sheet name="Relative BHC" sheetId="232" state="visible" r:id="rId1"/>
+    <sheet name="Relative AHC" sheetId="233" state="visible" r:id="rId2"/>
+    <sheet name="Absolute BHC" sheetId="234" state="visible" r:id="rId3"/>
+    <sheet name="Absolute AHC" sheetId="235" state="visible" r:id="rId4"/>
+    <sheet name="Severe BHC" sheetId="236" state="visible" r:id="rId5"/>
+    <sheet name="Severe AHC" sheetId="237" state="visible" r:id="rId6"/>
+    <sheet name="Child mat dep BHC" sheetId="238" state="visible" r:id="rId7"/>
+    <sheet name="Child mat dep AHC" sheetId="239" state="visible" r:id="rId8"/>
+    <sheet name="Pensioner dep" sheetId="240" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t xml:space="preserve">Relative poverty before housing costs</t>
   </si>
@@ -774,6 +774,27 @@
   </si>
   <si>
     <t xml:space="preserve">690,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This workbook contains data used in the charts and tables in the Poverty and Income Inequality in Scotland report, and additional analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The report is available here: data.gov.scot/poverty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maike Waldmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottish Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communities Analysis Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social-justice-analysis@gov.scot</t>
   </si>
 </sst>
 </file>
@@ -867,11 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFD3D3D3"/>
       </left>
@@ -883,6 +899,11 @@
       </top>
       <bottom style="thin">
         <color rgb="FFD3D3D3"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
@@ -903,26 +924,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1221,7 +1245,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.96125" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="6.71" hidden="0" customWidth="1"/>
@@ -1231,7 +1255,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -1241,7 +1265,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1249,787 +1273,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2061,54 +2085,93 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="12" t="str">
         <f>=HYPERLINK("#'Relative BHC'!B1", "Relative poverty before housing costs")</f>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="11" t="str">
+    <row r="7">
+      <c r="B7" s="12" t="str">
         <f>=HYPERLINK("#'Relative AHC'!B1", "Relative poverty after housing costs")</f>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="11" t="str">
+    <row r="8">
+      <c r="B8" s="12" t="str">
         <f>=HYPERLINK("#'Absolute BHC'!B1", "Absolute poverty before housing costs")</f>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="11" t="str">
+    <row r="9">
+      <c r="B9" s="12" t="str">
         <f>=HYPERLINK("#'Absolute AHC'!B1", "Absolute poverty after housing costs")</f>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="11" t="str">
+    <row r="10">
+      <c r="B10" s="12" t="str">
         <f>=HYPERLINK("#'Severe BHC'!B1", "Severe poverty before housing costs")</f>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="11" t="str">
+    <row r="11">
+      <c r="B11" s="12" t="str">
         <f>=HYPERLINK("#'Severe AHC'!B1", "Severe poverty after housing costs")</f>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="11" t="str">
+    <row r="12">
+      <c r="B12" s="12" t="str">
         <f>=HYPERLINK("#'Child mat dep BHC'!B1", "Children in combined low income and material deprivation before housing costs")</f>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="11" t="str">
+    <row r="13">
+      <c r="B13" s="12" t="str">
         <f>=HYPERLINK("#'Child mat dep AHC'!B1", "Children in combined low income and material deprivation after housing costs")</f>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="11" t="str">
+    <row r="14">
+      <c r="B14" s="12" t="str">
         <f>=HYPERLINK("#'Pensioner dep'!B1", "Pensioners in material deprivation")</f>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="11"/>
+    <row r="15">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="11" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1h"/>
+    <hyperlink ref="B20" r:id="rId2h"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -2133,7 +2196,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -2143,7 +2206,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2151,787 +2214,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2965,7 +3028,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -2975,7 +3038,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2983,787 +3046,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3797,7 +3860,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -3807,7 +3870,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3815,787 +3878,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4629,7 +4692,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -4639,7 +4702,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4647,787 +4710,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5461,7 +5524,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -5471,7 +5534,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5479,787 +5542,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6282,14 +6345,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="7.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="8.96125" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -6299,7 +6362,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6307,293 +6370,293 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6629,14 +6692,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="7.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="8.96125" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -6646,7 +6709,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6654,293 +6717,293 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6976,12 +7039,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="6.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.605" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="15.535" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -6991,133 +7054,133 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>109</v>
       </c>
     </row>

--- a/_site/xls/Poverty single year.xlsx
+++ b/_site/xls/Poverty single year.xlsx
@@ -6,22 +6,22 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="241" state="visible" r:id="rId10"/>
-    <sheet name="Relative BHC" sheetId="232" state="visible" r:id="rId1"/>
-    <sheet name="Relative AHC" sheetId="233" state="visible" r:id="rId2"/>
-    <sheet name="Absolute BHC" sheetId="234" state="visible" r:id="rId3"/>
-    <sheet name="Absolute AHC" sheetId="235" state="visible" r:id="rId4"/>
-    <sheet name="Severe BHC" sheetId="236" state="visible" r:id="rId5"/>
-    <sheet name="Severe AHC" sheetId="237" state="visible" r:id="rId6"/>
-    <sheet name="Child mat dep BHC" sheetId="238" state="visible" r:id="rId7"/>
-    <sheet name="Child mat dep AHC" sheetId="239" state="visible" r:id="rId8"/>
-    <sheet name="Pensioner dep" sheetId="240" state="visible" r:id="rId9"/>
+    <sheet name="Contents" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Relative BHC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Relative AHC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Absolute BHC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Absolute AHC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Severe BHC" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Severe AHC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Child mat dep BHC" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Child mat dep AHC" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Pensioner dep" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">Relative poverty before housing costs</t>
   </si>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">pnrate</t>
   </si>
   <si>
-    <t xml:space="preserve">1994-95</t>
+    <t xml:space="preserve">1994/95</t>
   </si>
   <si>
     <t xml:space="preserve">1,040,000</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">26%</t>
   </si>
   <si>
-    <t xml:space="preserve">1995-96</t>
+    <t xml:space="preserve">1995/96</t>
   </si>
   <si>
     <t xml:space="preserve">980,000</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">14%</t>
   </si>
   <si>
-    <t xml:space="preserve">1996-97</t>
+    <t xml:space="preserve">1996/97</t>
   </si>
   <si>
     <t xml:space="preserve">1,090,000</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">30%</t>
   </si>
   <si>
-    <t xml:space="preserve">1997-98</t>
+    <t xml:space="preserve">1997/98</t>
   </si>
   <si>
     <t xml:space="preserve">1,000,000</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">24%</t>
   </si>
   <si>
-    <t xml:space="preserve">1998-99</t>
+    <t xml:space="preserve">1998/99</t>
   </si>
   <si>
     <t xml:space="preserve">990,000</t>
@@ -179,13 +179,13 @@
     <t xml:space="preserve">15%</t>
   </si>
   <si>
-    <t xml:space="preserve">1999-00</t>
+    <t xml:space="preserve">1999/00</t>
   </si>
   <si>
     <t xml:space="preserve">1,050,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2000-01</t>
+    <t xml:space="preserve">2000/01</t>
   </si>
   <si>
     <t xml:space="preserve">280,000</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">18%</t>
   </si>
   <si>
-    <t xml:space="preserve">2001-02</t>
+    <t xml:space="preserve">2001/02</t>
   </si>
   <si>
     <t xml:space="preserve">960,000</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">190,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2002-03</t>
+    <t xml:space="preserve">2002/03</t>
   </si>
   <si>
     <t xml:space="preserve">250,000</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">23%</t>
   </si>
   <si>
-    <t xml:space="preserve">2003-04</t>
+    <t xml:space="preserve">2003/04</t>
   </si>
   <si>
     <t xml:space="preserve">910,000</t>
@@ -230,13 +230,13 @@
     <t xml:space="preserve">200,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2004-05</t>
+    <t xml:space="preserve">2004/05</t>
   </si>
   <si>
     <t xml:space="preserve">860,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-06</t>
+    <t xml:space="preserve">2005/06</t>
   </si>
   <si>
     <t xml:space="preserve">870,000</t>
@@ -245,25 +245,25 @@
     <t xml:space="preserve">180,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2006-07</t>
+    <t xml:space="preserve">2006/07</t>
   </si>
   <si>
     <t xml:space="preserve">840,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2007-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-09</t>
+    <t xml:space="preserve">2007/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008/09</t>
   </si>
   <si>
     <t xml:space="preserve">160,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2009-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-11</t>
+    <t xml:space="preserve">2009/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010/11</t>
   </si>
   <si>
     <t xml:space="preserve">770,000</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">170,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2011-12</t>
+    <t xml:space="preserve">2011/12</t>
   </si>
   <si>
     <t xml:space="preserve">700,000</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">13%</t>
   </si>
   <si>
-    <t xml:space="preserve">2012-13</t>
+    <t xml:space="preserve">2012/13</t>
   </si>
   <si>
     <t xml:space="preserve">820,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-14</t>
+    <t xml:space="preserve">2013/14</t>
   </si>
   <si>
     <t xml:space="preserve">730,000</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">430,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2014-15</t>
+    <t xml:space="preserve">2014/15</t>
   </si>
   <si>
     <t xml:space="preserve">800,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-16</t>
+    <t xml:space="preserve">2015/16</t>
   </si>
   <si>
     <t xml:space="preserve">880,000</t>
@@ -320,19 +320,19 @@
     <t xml:space="preserve">520,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2016-17</t>
+    <t xml:space="preserve">2016/17</t>
   </si>
   <si>
     <t xml:space="preserve">900,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-18</t>
+    <t xml:space="preserve">2017/18</t>
   </si>
   <si>
     <t xml:space="preserve">930,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-19</t>
+    <t xml:space="preserve">2018/19</t>
   </si>
   <si>
     <t xml:space="preserve">Year</t>
@@ -725,15 +725,6 @@
     <t xml:space="preserve">5%</t>
   </si>
   <si>
-    <t xml:space="preserve">Pensioner material deprivation is different to other measures of poverty, including the child low income and material deprivation measure, in that is not associated with an income threshold. It captures issues such as whether poor health, disability and social isolation prevent access to goods and services, rather than solely low income.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensioner material deprivation is different to other measures of poverty, including the child low income and material deprivation measure - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is not associated with an income threshold. It captures issues such as whether poor health, disability and social isolation prevent access to goods and services, rather than solely low income.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pensioner material deprivation is different to other measures of poverty, including the child low income and material deprivation measure </t>
   </si>
   <si>
@@ -744,36 +735,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,430,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">670,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,390,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,350,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,180,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,540,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,510,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,330,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">690,000</t>
   </si>
   <si>
     <t xml:space="preserve">This workbook contains data used in the charts and tables in the Poverty and Income Inequality in Scotland report, and additional analysis.</t>
@@ -816,6 +777,11 @@
       <name val="Segoe UI Semibold"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Semibold"/>
@@ -831,20 +797,15 @@
       <name val="Segoe UI"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Segoe UI Semibold"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Semibold"/>
-      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -926,28 +887,40 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1245,7 +1218,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.96125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="6.71" hidden="0" customWidth="1"/>
@@ -1265,7 +1238,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1273,787 +1246,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2081,17 +2054,17 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="11" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="11" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
@@ -2144,27 +2117,27 @@
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="11" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="11" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="11" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="11" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2179,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2214,787 +2187,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3038,7 +3011,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3046,787 +3019,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" s="7" t="s">
+    </row>
+    <row r="18">
+      <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="7" t="s">
+    </row>
+    <row r="20">
+      <c r="B20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>206</v>
+      <c r="J31" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3870,7 +3843,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3878,787 +3851,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="E13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="I22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="I25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="I28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="I29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="H31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="32">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4702,7 +4675,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4710,787 +4683,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5534,7 +5507,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5542,787 +5515,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6345,9 +6318,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="8.96125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="7.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6362,7 +6335,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6370,308 +6343,308 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6692,9 +6665,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="8.96125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="7.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6709,7 +6682,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6717,308 +6690,308 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7039,8 +7012,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="9.605" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="15.535" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="6.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7054,158 +7027,158 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="7" t="s">
+    <row r="10">
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D10" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row r="14">
+      <c r="B14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="7" t="s">
+    <row r="15">
+      <c r="B15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="8" t="s">
-        <v>237</v>
+      <c r="B20" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="8" t="s">
-        <v>238</v>
+      <c r="B21" s="9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="8" t="s">
-        <v>239</v>
+      <c r="B22" s="9" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_site/xls/Poverty single year.xlsx
+++ b/_site/xls/Poverty single year.xlsx
@@ -6,16 +6,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Relative BHC" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Relative AHC" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Absolute BHC" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Absolute AHC" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Severe BHC" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Severe AHC" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Child mat dep BHC" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Child mat dep AHC" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Pensioner dep" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Contents" sheetId="40" state="visible" r:id="rId10"/>
+    <sheet name="Relative BHC" sheetId="31" state="visible" r:id="rId1"/>
+    <sheet name="Relative AHC" sheetId="32" state="visible" r:id="rId2"/>
+    <sheet name="Absolute BHC" sheetId="33" state="visible" r:id="rId3"/>
+    <sheet name="Absolute AHC" sheetId="34" state="visible" r:id="rId4"/>
+    <sheet name="Severe BHC" sheetId="35" state="visible" r:id="rId5"/>
+    <sheet name="Severe AHC" sheetId="36" state="visible" r:id="rId6"/>
+    <sheet name="Child mat dep BHC" sheetId="37" state="visible" r:id="rId7"/>
+    <sheet name="Child mat dep AHC" sheetId="38" state="visible" r:id="rId8"/>
+    <sheet name="Pensioner dep" sheetId="39" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -777,11 +777,6 @@
       <name val="Segoe UI Semibold"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Semibold"/>
@@ -793,6 +788,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
     </font>
@@ -890,23 +890,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -915,7 +915,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1218,7 +1218,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.96125" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="6.71" hidden="0" customWidth="1"/>
@@ -1238,7 +1238,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1246,787 +1246,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2187,787 +2187,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3019,787 +3019,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3851,787 +3851,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4683,787 +4683,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5515,787 +5515,787 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6318,9 +6318,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="7.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="8.96125" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6335,7 +6335,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6343,293 +6343,293 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6665,9 +6665,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.96125" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="7.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="8.96125" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6682,7 +6682,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6690,293 +6690,293 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7012,8 +7012,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="6.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.605" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="15.535" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7027,133 +7027,133 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>109</v>
       </c>
     </row>
